--- a/vaccine_daily/KOREI-vaccination_data.xlsx
+++ b/vaccine_daily/KOREI-vaccination_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{B7A1382E-5DD8-4738-A959-09784125D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25AEDD60-562D-4F3C-A178-0EE16803737F}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{B7A1382E-5DD8-4738-A959-09784125D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7551C208-AAB8-47D4-8DA3-EDA508A27639}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t> 接種回数　</t>
   </si>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月20日時点）</t>
+    <t>（5月23日時点）</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
@@ -577,7 +577,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -630,428 +630,428 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
-        <v>1801032</v>
+        <v>2339839</v>
       </c>
       <c r="D4" s="5">
-        <v>1663020</v>
+        <v>2166240</v>
       </c>
       <c r="E4" s="5">
-        <v>138012</v>
+        <v>173599</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
-        <v>144620</v>
+        <v>131300</v>
       </c>
       <c r="D5" s="5">
-        <v>140621</v>
+        <v>124188</v>
       </c>
       <c r="E5" s="5">
-        <v>3999</v>
+        <v>7112</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
-        <v>181037</v>
+        <v>129982</v>
       </c>
       <c r="D6" s="5">
-        <v>165473</v>
+        <v>122787</v>
       </c>
       <c r="E6" s="5">
-        <v>15564</v>
+        <v>7195</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
-        <v>44334</v>
+        <v>44337</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
-        <v>170189</v>
+        <v>160397</v>
       </c>
       <c r="D7" s="5">
-        <v>152860</v>
+        <v>150108</v>
       </c>
       <c r="E7" s="5">
-        <v>17329</v>
+        <v>10289</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
-        <v>44333</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>44336</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>147767</v>
+        <v>185438</v>
       </c>
       <c r="D8" s="5">
-        <v>134758</v>
+        <v>178490</v>
       </c>
       <c r="E8" s="5">
-        <v>13009</v>
+        <v>6948</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
-        <v>130753</v>
+        <v>198079</v>
       </c>
       <c r="D9" s="5">
-        <v>121494</v>
+        <v>180516</v>
       </c>
       <c r="E9" s="5">
-        <v>9259</v>
+        <v>17563</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
-        <v>44331</v>
+        <v>44334</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
-        <v>89964</v>
+        <v>180173</v>
       </c>
       <c r="D10" s="5">
-        <v>82374</v>
+        <v>161332</v>
       </c>
       <c r="E10" s="5">
-        <v>7590</v>
+        <v>18841</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
-        <v>44330</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>44333</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>89655</v>
+        <v>155041</v>
       </c>
       <c r="D11" s="5">
-        <v>80604</v>
+        <v>140955</v>
       </c>
       <c r="E11" s="5">
-        <v>9051</v>
+        <v>14086</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
-        <v>112953</v>
+        <v>137419</v>
       </c>
       <c r="D12" s="5">
-        <v>100400</v>
+        <v>128115</v>
       </c>
       <c r="E12" s="5">
-        <v>12553</v>
+        <v>9304</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
-        <v>117689</v>
+        <v>101476</v>
       </c>
       <c r="D13" s="5">
-        <v>103960</v>
+        <v>93314</v>
       </c>
       <c r="E13" s="5">
-        <v>13729</v>
+        <v>8162</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>94368</v>
+        <v>93641</v>
       </c>
       <c r="D14" s="5">
-        <v>82407</v>
+        <v>84127</v>
       </c>
       <c r="E14" s="5">
-        <v>11961</v>
+        <v>9514</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
-        <v>44326</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>44329</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="5">
-        <v>73270</v>
+        <v>118539</v>
       </c>
       <c r="D15" s="5">
-        <v>65486</v>
+        <v>105500</v>
       </c>
       <c r="E15" s="5">
-        <v>7784</v>
+        <v>13039</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>44325</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>44328</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="5">
-        <v>61821</v>
+        <v>121188</v>
       </c>
       <c r="D16" s="5">
-        <v>56313</v>
+        <v>106789</v>
       </c>
       <c r="E16" s="5">
-        <v>5508</v>
+        <v>14399</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
-        <v>44324</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
+        <v>44327</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>42240</v>
+        <v>96580</v>
       </c>
       <c r="D17" s="5">
-        <v>39257</v>
+        <v>84233</v>
       </c>
       <c r="E17" s="5">
-        <v>2983</v>
+        <v>12347</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>27043</v>
+        <v>74732</v>
       </c>
       <c r="D18" s="5">
-        <v>24467</v>
+        <v>66720</v>
       </c>
       <c r="E18" s="5">
-        <v>2576</v>
+        <v>8012</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
-        <v>44322</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>44325</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="5">
-        <v>29965</v>
+        <v>62485</v>
       </c>
       <c r="D19" s="5">
-        <v>26645</v>
+        <v>56977</v>
       </c>
       <c r="E19" s="5">
-        <v>3320</v>
+        <v>5508</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
-        <v>44321</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
+        <v>44324</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="5">
-        <v>7979</v>
+        <v>43227</v>
       </c>
       <c r="D20" s="5">
-        <v>7385</v>
+        <v>40045</v>
       </c>
       <c r="E20" s="5">
-        <v>594</v>
+        <v>3182</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
-        <v>44320</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>44323</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="5">
-        <v>6487</v>
+        <v>27582</v>
       </c>
       <c r="D21" s="5">
-        <v>5997</v>
+        <v>24769</v>
       </c>
       <c r="E21" s="5">
-        <v>490</v>
+        <v>2813</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
-        <v>44319</v>
+        <v>44322</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
-        <v>5868</v>
+        <v>30947</v>
       </c>
       <c r="D22" s="5">
-        <v>5155</v>
+        <v>27477</v>
       </c>
       <c r="E22" s="5">
-        <v>713</v>
+        <v>3470</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
-        <v>44318</v>
+        <v>44321</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5">
-        <v>18736</v>
+        <v>8110</v>
       </c>
       <c r="D23" s="5">
-        <v>18736</v>
+        <v>7507</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
-        <v>44317</v>
+        <v>44320</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5">
-        <v>17223</v>
+        <v>6654</v>
       </c>
       <c r="D24" s="5">
-        <v>17223</v>
+        <v>6154</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>19642</v>
+        <v>5904</v>
       </c>
       <c r="D25" s="5">
-        <v>19642</v>
+        <v>5192</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>44315</v>
+        <v>44318</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5">
-        <v>10340</v>
+        <v>18876</v>
       </c>
       <c r="D26" s="5">
-        <v>10340</v>
+        <v>18876</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>44314</v>
+        <v>44317</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5">
-        <v>26874</v>
+        <v>17394</v>
       </c>
       <c r="D27" s="5">
-        <v>26874</v>
+        <v>17394</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5">
-        <v>27443</v>
+        <v>19889</v>
       </c>
       <c r="D28" s="5">
-        <v>27443</v>
+        <v>19889</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -1099,16 +1099,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="5">
-        <v>20361</v>
+        <v>10415</v>
       </c>
       <c r="D29" s="5">
-        <v>20361</v>
+        <v>10415</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>44311</v>
+        <v>44314</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5">
-        <v>13055</v>
+        <v>27294</v>
       </c>
       <c r="D30" s="5">
-        <v>13055</v>
+        <v>27294</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
-        <v>44310</v>
+        <v>44313</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5">
-        <v>12178</v>
+        <v>27730</v>
       </c>
       <c r="D31" s="5">
-        <v>12178</v>
+        <v>27730</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
-        <v>44309</v>
+        <v>44312</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5">
-        <v>13261</v>
+        <v>20635</v>
       </c>
       <c r="D32" s="5">
-        <v>13261</v>
+        <v>20635</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
-        <v>44308</v>
+        <v>44311</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5">
-        <v>17926</v>
+        <v>13176</v>
       </c>
       <c r="D33" s="5">
-        <v>17926</v>
+        <v>13176</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1194,16 +1194,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
-        <v>44307</v>
+        <v>44310</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5">
-        <v>19677</v>
+        <v>12243</v>
       </c>
       <c r="D34" s="5">
-        <v>19677</v>
+        <v>12243</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="5">
-        <v>16654</v>
+        <v>13511</v>
       </c>
       <c r="D35" s="5">
-        <v>16654</v>
+        <v>13511</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="5">
-        <v>10363</v>
+        <v>18450</v>
       </c>
       <c r="D36" s="5">
-        <v>10363</v>
+        <v>18450</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -1251,105 +1251,111 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11">
-        <v>44304</v>
+        <v>44307</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5">
-        <v>5624</v>
+        <v>20139</v>
       </c>
       <c r="D37" s="5">
-        <v>5624</v>
+        <v>20139</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11">
-        <v>44303</v>
+        <v>44306</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="5">
-        <v>3506</v>
+        <v>16908</v>
       </c>
       <c r="D38" s="5">
-        <v>3506</v>
+        <v>16908</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
       </c>
-      <c r="F38"/>
-      <c r="G38"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="11">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5">
-        <v>3048</v>
+        <v>10608</v>
       </c>
       <c r="D39" s="5">
-        <v>3048</v>
+        <v>10608</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
       </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="11">
-        <v>44301</v>
+        <v>44304</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" s="5">
-        <v>3360</v>
+        <v>5641</v>
       </c>
       <c r="D40" s="5">
-        <v>3360</v>
+        <v>5641</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="11">
-        <v>44300</v>
+        <v>44303</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5">
-        <v>2666</v>
+        <v>3507</v>
       </c>
       <c r="D41" s="5">
-        <v>2666</v>
+        <v>3507</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
+      <c r="F41"/>
+      <c r="G41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
-        <v>44299</v>
+        <v>44302</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" s="5">
-        <v>2474</v>
+        <v>3068</v>
       </c>
       <c r="D42" s="5">
-        <v>2474</v>
+        <v>3068</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -1357,28 +1363,79 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
+        <v>44301</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3360</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3360</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="11">
+        <v>44300</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2669</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2669</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="11">
+        <v>44299</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2477</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2477</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
         <v>44298</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="5">
-        <v>2953</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2953</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="C46" s="5">
+        <v>2955</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2955</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1742,17 +1799,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96C20AF-444A-4C1E-91AC-3C7867DEFE1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD2FBAD9-50A3-4004-8EE0-1201C14D162A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6021AB95-0556-4B9B-AF92-EAF2E368425C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B8BDACF-2AD1-41EF-BF35-0912557975D6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A710A246-7F5E-4A7A-B393-C9599C5E72EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5DF700-7BBA-4261-91EE-F53682E268DE}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6A2680-3879-4E33-8EC1-C27DAFF76749}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7984FF31-9B41-45A0-B3AC-CF40A1BE12A4}"/>
 </file>
--- a/vaccine_daily/KOREI-vaccination_data.xlsx
+++ b/vaccine_daily/KOREI-vaccination_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{B7A1382E-5DD8-4738-A959-09784125D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7551C208-AAB8-47D4-8DA3-EDA508A27639}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{B7A1382E-5DD8-4738-A959-09784125D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{865E187B-5C3A-4053-A286-1A67B4535FA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t> 接種回数　</t>
   </si>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月23日時点）</t>
+    <t>（5月27日時点）</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
@@ -577,7 +577,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +589,7 @@
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -598,7 +598,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
@@ -607,7 +607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -624,510 +624,518 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
-        <v>2339839</v>
+        <v>3979962</v>
       </c>
       <c r="D4" s="5">
-        <v>2166240</v>
+        <v>3737156</v>
       </c>
       <c r="E4" s="5">
-        <v>173599</v>
+        <v>242806</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>131300</v>
+        <v>273979</v>
       </c>
       <c r="D5" s="5">
-        <v>124188</v>
+        <v>260210</v>
       </c>
       <c r="E5" s="5">
-        <v>7112</v>
+        <v>13769</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>129982</v>
+        <v>338755</v>
       </c>
       <c r="D6" s="5">
-        <v>122787</v>
+        <v>332224</v>
       </c>
       <c r="E6" s="5">
-        <v>7195</v>
+        <v>6531</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>160397</v>
+        <v>328027</v>
       </c>
       <c r="D7" s="5">
-        <v>150108</v>
+        <v>322446</v>
       </c>
       <c r="E7" s="5">
-        <v>10289</v>
+        <v>5581</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
-        <v>44336</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>44340</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="5">
-        <v>185438</v>
+        <v>300608</v>
       </c>
       <c r="D8" s="5">
-        <v>178490</v>
+        <v>295210</v>
       </c>
       <c r="E8" s="5">
-        <v>6948</v>
+        <v>5398</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
-        <v>198079</v>
+        <v>206968</v>
       </c>
       <c r="D9" s="5">
-        <v>180516</v>
+        <v>193646</v>
       </c>
       <c r="E9" s="5">
-        <v>17563</v>
+        <v>13322</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
-        <v>44334</v>
+        <v>44338</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
-        <v>180173</v>
+        <v>198742</v>
       </c>
       <c r="D10" s="5">
-        <v>161332</v>
+        <v>183979</v>
       </c>
       <c r="E10" s="5">
-        <v>18841</v>
+        <v>14763</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
-        <v>44333</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>44337</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="5">
-        <v>155041</v>
+        <v>204515</v>
       </c>
       <c r="D11" s="5">
-        <v>140955</v>
+        <v>189097</v>
       </c>
       <c r="E11" s="5">
-        <v>14086</v>
+        <v>15418</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>137419</v>
+        <v>225240</v>
       </c>
       <c r="D12" s="5">
-        <v>128115</v>
+        <v>216767</v>
       </c>
       <c r="E12" s="5">
-        <v>9304</v>
+        <v>8473</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
-        <v>101476</v>
+        <v>237277</v>
       </c>
       <c r="D13" s="5">
-        <v>93314</v>
+        <v>216853</v>
       </c>
       <c r="E13" s="5">
-        <v>8162</v>
+        <v>20424</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
-        <v>93641</v>
+        <v>200979</v>
       </c>
       <c r="D14" s="5">
-        <v>84127</v>
+        <v>179703</v>
       </c>
       <c r="E14" s="5">
-        <v>9514</v>
+        <v>21276</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
-        <v>44329</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>44333</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>118539</v>
+        <v>168003</v>
       </c>
       <c r="D15" s="5">
-        <v>105500</v>
+        <v>152023</v>
       </c>
       <c r="E15" s="5">
-        <v>13039</v>
+        <v>15980</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
-        <v>121188</v>
+        <v>163954</v>
       </c>
       <c r="D16" s="5">
-        <v>106789</v>
+        <v>153099</v>
       </c>
       <c r="E16" s="5">
-        <v>14399</v>
+        <v>10855</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5">
-        <v>96580</v>
+        <v>114150</v>
       </c>
       <c r="D17" s="5">
-        <v>84233</v>
+        <v>104003</v>
       </c>
       <c r="E17" s="5">
-        <v>12347</v>
+        <v>10147</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
-        <v>44326</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>44330</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="5">
-        <v>74732</v>
+        <v>100832</v>
       </c>
       <c r="D18" s="5">
-        <v>66720</v>
+        <v>90295</v>
       </c>
       <c r="E18" s="5">
-        <v>8012</v>
+        <v>10537</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
-        <v>44325</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>7</v>
+        <v>44329</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="5">
-        <v>62485</v>
+        <v>126923</v>
       </c>
       <c r="D19" s="5">
-        <v>56977</v>
+        <v>112362</v>
       </c>
       <c r="E19" s="5">
-        <v>5508</v>
+        <v>14561</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
-        <v>44324</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
+        <v>44328</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="5">
-        <v>43227</v>
+        <v>129364</v>
       </c>
       <c r="D20" s="5">
-        <v>40045</v>
+        <v>113574</v>
       </c>
       <c r="E20" s="5">
-        <v>3182</v>
+        <v>15790</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
-        <v>44323</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
+        <v>44327</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="5">
-        <v>27582</v>
+        <v>101464</v>
       </c>
       <c r="D21" s="5">
-        <v>24769</v>
+        <v>87968</v>
       </c>
       <c r="E21" s="5">
-        <v>2813</v>
+        <v>13496</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
-        <v>44322</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>44326</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="5">
-        <v>30947</v>
+        <v>78335</v>
       </c>
       <c r="D22" s="5">
-        <v>27477</v>
+        <v>69656</v>
       </c>
       <c r="E22" s="5">
-        <v>3470</v>
+        <v>8679</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
-        <v>44321</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>11</v>
+        <v>44325</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="5">
-        <v>8110</v>
+        <v>66299</v>
       </c>
       <c r="D23" s="5">
-        <v>7507</v>
+        <v>60631</v>
       </c>
       <c r="E23" s="5">
-        <v>603</v>
+        <v>5668</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
-        <v>44320</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>12</v>
+        <v>44324</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="5">
-        <v>6654</v>
+        <v>47171</v>
       </c>
       <c r="D24" s="5">
-        <v>6154</v>
+        <v>43824</v>
       </c>
       <c r="E24" s="5">
-        <v>500</v>
+        <v>3347</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
-        <v>44319</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>44323</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5">
-        <v>5904</v>
+        <v>29067</v>
       </c>
       <c r="D25" s="5">
-        <v>5192</v>
+        <v>25799</v>
       </c>
       <c r="E25" s="5">
-        <v>712</v>
+        <v>3268</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>44318</v>
+        <v>44322</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5">
-        <v>18876</v>
+        <v>32025</v>
       </c>
       <c r="D26" s="5">
-        <v>18876</v>
+        <v>28333</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>3692</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>44317</v>
+        <v>44321</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5">
-        <v>17394</v>
+        <v>8152</v>
       </c>
       <c r="D27" s="5">
-        <v>17394</v>
+        <v>7544</v>
       </c>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>44316</v>
+        <v>44320</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5">
-        <v>19889</v>
+        <v>6718</v>
       </c>
       <c r="D28" s="5">
-        <v>19889</v>
+        <v>6212</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>44315</v>
+        <v>44319</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5">
-        <v>10415</v>
+        <v>5955</v>
       </c>
       <c r="D29" s="5">
-        <v>10415</v>
+        <v>5238</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>44314</v>
+        <v>44318</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5">
-        <v>27294</v>
+        <v>19211</v>
       </c>
       <c r="D30" s="5">
-        <v>27294</v>
+        <v>19211</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -1137,16 +1145,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11">
-        <v>44313</v>
+        <v>44317</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5">
-        <v>27730</v>
+        <v>18161</v>
       </c>
       <c r="D31" s="5">
-        <v>27730</v>
+        <v>18161</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1156,16 +1164,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
-        <v>44312</v>
+        <v>44316</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="5">
-        <v>20635</v>
+        <v>21444</v>
       </c>
       <c r="D32" s="5">
-        <v>20635</v>
+        <v>21444</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1175,16 +1183,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
-        <v>44311</v>
+        <v>44315</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5">
-        <v>13176</v>
+        <v>11257</v>
       </c>
       <c r="D33" s="5">
-        <v>13176</v>
+        <v>11257</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1194,16 +1202,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
-        <v>44310</v>
+        <v>44314</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5">
-        <v>12243</v>
+        <v>29576</v>
       </c>
       <c r="D34" s="5">
-        <v>12243</v>
+        <v>29576</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1213,16 +1221,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C35" s="5">
-        <v>13511</v>
+        <v>30244</v>
       </c>
       <c r="D35" s="5">
-        <v>13511</v>
+        <v>30244</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1232,16 +1240,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
-        <v>44308</v>
+        <v>44312</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5">
-        <v>18450</v>
+        <v>22274</v>
       </c>
       <c r="D36" s="5">
-        <v>18450</v>
+        <v>22274</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -1251,16 +1259,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11">
-        <v>44307</v>
+        <v>44311</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="5">
-        <v>20139</v>
+        <v>13682</v>
       </c>
       <c r="D37" s="5">
-        <v>20139</v>
+        <v>13682</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -1270,16 +1278,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11">
-        <v>44306</v>
+        <v>44310</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5">
-        <v>16908</v>
+        <v>13501</v>
       </c>
       <c r="D38" s="5">
-        <v>16908</v>
+        <v>13501</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -1289,16 +1297,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="11">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="5">
-        <v>10608</v>
+        <v>14331</v>
       </c>
       <c r="D39" s="5">
-        <v>10608</v>
+        <v>14331</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -1308,134 +1316,210 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="11">
-        <v>44304</v>
+        <v>44308</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" s="5">
-        <v>5641</v>
+        <v>19098</v>
       </c>
       <c r="D40" s="5">
-        <v>5641</v>
+        <v>19098</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="11">
-        <v>44303</v>
+        <v>44307</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" s="5">
-        <v>3507</v>
+        <v>20685</v>
       </c>
       <c r="D41" s="5">
-        <v>3507</v>
+        <v>20685</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" s="5">
-        <v>3068</v>
+        <v>17773</v>
       </c>
       <c r="D42" s="5">
-        <v>3068</v>
+        <v>17773</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
       </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" s="5">
-        <v>3360</v>
+        <v>11059</v>
       </c>
       <c r="D43" s="5">
-        <v>3360</v>
+        <v>11059</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
       </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
-        <v>44300</v>
+        <v>44304</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44" s="5">
-        <v>2669</v>
+        <v>5638</v>
       </c>
       <c r="D44" s="5">
-        <v>2669</v>
+        <v>5638</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
-        <v>44299</v>
+        <v>44303</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="5">
-        <v>2477</v>
+        <v>3564</v>
       </c>
       <c r="D45" s="5">
-        <v>2477</v>
+        <v>3564</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
       </c>
+      <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11">
+        <v>44302</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2962</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2962</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="11">
+        <v>44301</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3570</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3570</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="11">
+        <v>44300</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2793</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2793</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="11">
+        <v>44299</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2670</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2670</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
         <v>44298</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="5">
-        <v>2955</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2955</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+      <c r="C50" s="5">
+        <v>2967</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2967</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1444,372 +1528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E8684AFC7BA4E946AF96F6A5CBEE62BB" ma:contentTypeVersion="31" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="360bff5150e767e125a1564f69a9fd0d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="89559dea-130d-4237-8e78-1ce7f44b9a24" xmlns:ns3="0e1d05ab-b491-48cc-a1d7-91236226a3a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bdf01f10b0338da7a5a85bd71431d3e" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="89559dea-130d-4237-8e78-1ce7f44b9a24"/>
-    <xsd:import namespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:d1ca" minOccurs="0"/>
-                <xsd:element ref="ns3:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89559dea-130d-4237-8e78-1ce7f44b9a24" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="ドキュメント ID 値" ma:description="このアイテムに割り当てられているドキュメント ID の値です。" ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="ドキュメントID:" ma:description="このドキュメントへの常時接続リンクです。" ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="ID を保持" ma:description="追加時に ID を保持します。" ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="23" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="24" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e1d05ab-b491-48cc-a1d7-91236226a3a4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="d1ca" ma:index="25" nillable="true" ma:displayName="数値" ma:internalName="d1ca">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="26" nillable="true" ma:displayName="承認の状態" ma:internalName="_x627f__x8a8d__x306e__x72b6__x614b_">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="27" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">DIGI-808455956-2816671</_dlc_DocId>
-    <_Flow_SignoffStatus xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
-    <d1ca xmlns="0e1d05ab-b491-48cc-a1d7-91236226a3a4" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="89559dea-130d-4237-8e78-1ce7f44b9a24">
-      <Url>https://digitalgojp.sharepoint.com/sites/digi_portal/_layouts/15/DocIdRedir.aspx?ID=DIGI-808455956-2816671</Url>
-      <Description>DIGI-808455956-2816671</Description>
-    </_dlc_DocIdUrl>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD2FBAD9-50A3-4004-8EE0-1201C14D162A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B8BDACF-2AD1-41EF-BF35-0912557975D6}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5DF700-7BBA-4261-91EE-F53682E268DE}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7984FF31-9B41-45A0-B3AC-CF40A1BE12A4}"/>
 </file>
--- a/vaccine_daily/KOREI-vaccination_data.xlsx
+++ b/vaccine_daily/KOREI-vaccination_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{B7A1382E-5DD8-4738-A959-09784125D609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{865E187B-5C3A-4053-A286-1A67B4535FA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5AC82B-6832-41F8-B495-52C8BEAC1F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高齢者等" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="6"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t> 接種回数　</t>
   </si>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（5月27日時点）</t>
+    <t>（5月30日時点）</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
@@ -577,19 +577,21 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -598,7 +600,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
@@ -607,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -624,575 +626,613 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
-        <v>3979962</v>
+        <f>SUM(C5:C53)</f>
+        <v>4982708</v>
       </c>
       <c r="D4" s="5">
-        <v>3737156</v>
+        <f>SUM(D5:D53)</f>
+        <v>4661390</v>
       </c>
       <c r="E4" s="5">
-        <v>242806</v>
+        <f>SUM(E5:E53)</f>
+        <v>321318</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
-        <v>273979</v>
+        <f>SUM(D5:E5)</f>
+        <v>200187</v>
       </c>
       <c r="D5" s="5">
-        <v>260210</v>
+        <v>174905</v>
       </c>
       <c r="E5" s="5">
-        <v>13769</v>
+        <v>25282</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
-        <v>338755</v>
+        <f t="shared" ref="C6:C53" si="0">SUM(D6:E6)</f>
+        <v>232285</v>
       </c>
       <c r="D6" s="5">
-        <v>332224</v>
+        <v>211341</v>
       </c>
       <c r="E6" s="5">
-        <v>6531</v>
+        <v>20944</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
-        <v>44341</v>
+        <v>44344</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
-        <v>328027</v>
+        <f t="shared" si="0"/>
+        <v>312794</v>
       </c>
       <c r="D7" s="5">
-        <v>322446</v>
+        <v>296473</v>
       </c>
       <c r="E7" s="5">
-        <v>5581</v>
+        <v>16321</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>44340</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>44343</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>300608</v>
+        <f t="shared" si="0"/>
+        <v>353455</v>
       </c>
       <c r="D8" s="5">
-        <v>295210</v>
+        <v>332754</v>
       </c>
       <c r="E8" s="5">
-        <v>5398</v>
+        <v>20701</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
-        <v>206968</v>
+        <f t="shared" si="0"/>
+        <v>371561</v>
       </c>
       <c r="D9" s="5">
-        <v>193646</v>
+        <v>364587</v>
       </c>
       <c r="E9" s="5">
-        <v>13322</v>
+        <v>6974</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
-        <v>44338</v>
+        <v>44341</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
-        <v>198742</v>
+        <f t="shared" si="0"/>
+        <v>348318</v>
       </c>
       <c r="D10" s="5">
-        <v>183979</v>
+        <v>342403</v>
       </c>
       <c r="E10" s="5">
-        <v>14763</v>
+        <v>5915</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
-        <v>44337</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>44340</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>204515</v>
+        <f t="shared" si="0"/>
+        <v>313203</v>
       </c>
       <c r="D11" s="5">
-        <v>189097</v>
+        <v>307719</v>
       </c>
       <c r="E11" s="5">
-        <v>15418</v>
+        <v>5484</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
-        <v>225240</v>
+        <f t="shared" si="0"/>
+        <v>224063</v>
       </c>
       <c r="D12" s="5">
-        <v>216767</v>
+        <v>208821</v>
       </c>
       <c r="E12" s="5">
-        <v>8473</v>
+        <v>15242</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
-        <v>237277</v>
+        <f t="shared" si="0"/>
+        <v>216669</v>
       </c>
       <c r="D13" s="5">
-        <v>216853</v>
+        <v>201181</v>
       </c>
       <c r="E13" s="5">
-        <v>20424</v>
+        <v>15488</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>44334</v>
+        <v>44337</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>200979</v>
+        <f t="shared" si="0"/>
+        <v>212407</v>
       </c>
       <c r="D14" s="5">
-        <v>179703</v>
+        <v>196537</v>
       </c>
       <c r="E14" s="5">
-        <v>21276</v>
+        <v>15870</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>44333</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>44336</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="5">
-        <v>168003</v>
+        <f t="shared" si="0"/>
+        <v>234813</v>
       </c>
       <c r="D15" s="5">
-        <v>152023</v>
+        <v>225997</v>
       </c>
       <c r="E15" s="5">
-        <v>15980</v>
+        <v>8816</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5">
-        <v>163954</v>
+        <f t="shared" si="0"/>
+        <v>244162</v>
       </c>
       <c r="D16" s="5">
-        <v>153099</v>
+        <v>223024</v>
       </c>
       <c r="E16" s="5">
-        <v>10855</v>
+        <v>21138</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
-        <v>44331</v>
+        <v>44334</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>114150</v>
+        <f t="shared" si="0"/>
+        <v>205896</v>
       </c>
       <c r="D17" s="5">
-        <v>104003</v>
+        <v>183997</v>
       </c>
       <c r="E17" s="5">
-        <v>10147</v>
+        <v>21899</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
-        <v>44330</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>44333</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>100832</v>
+        <f t="shared" si="0"/>
+        <v>171758</v>
       </c>
       <c r="D18" s="5">
-        <v>90295</v>
+        <v>155396</v>
       </c>
       <c r="E18" s="5">
-        <v>10537</v>
+        <v>16362</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5">
-        <v>126923</v>
+        <f t="shared" si="0"/>
+        <v>166397</v>
       </c>
       <c r="D19" s="5">
-        <v>112362</v>
+        <v>155258</v>
       </c>
       <c r="E19" s="5">
-        <v>14561</v>
+        <v>11139</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
-        <v>129364</v>
+        <f t="shared" si="0"/>
+        <v>116575</v>
       </c>
       <c r="D20" s="5">
-        <v>113574</v>
+        <v>105913</v>
       </c>
       <c r="E20" s="5">
-        <v>15790</v>
+        <v>10662</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5">
-        <v>101464</v>
+        <f t="shared" si="0"/>
+        <v>103730</v>
       </c>
       <c r="D21" s="5">
-        <v>87968</v>
+        <v>92886</v>
       </c>
       <c r="E21" s="5">
-        <v>13496</v>
+        <v>10844</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
-        <v>44326</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
+        <v>44329</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C22" s="5">
-        <v>78335</v>
+        <f t="shared" si="0"/>
+        <v>130226</v>
       </c>
       <c r="D22" s="5">
-        <v>69656</v>
+        <v>115211</v>
       </c>
       <c r="E22" s="5">
-        <v>8679</v>
+        <v>15015</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
-        <v>44325</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
+        <v>44328</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="5">
-        <v>66299</v>
+        <f t="shared" si="0"/>
+        <v>132981</v>
       </c>
       <c r="D23" s="5">
-        <v>60631</v>
+        <v>116674</v>
       </c>
       <c r="E23" s="5">
-        <v>5668</v>
+        <v>16307</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
-        <v>44324</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
+        <v>44327</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="5">
-        <v>47171</v>
+        <f t="shared" si="0"/>
+        <v>104672</v>
       </c>
       <c r="D24" s="5">
-        <v>43824</v>
+        <v>90685</v>
       </c>
       <c r="E24" s="5">
-        <v>3347</v>
+        <v>13987</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>29067</v>
+        <f t="shared" si="0"/>
+        <v>80046</v>
       </c>
       <c r="D25" s="5">
-        <v>25799</v>
+        <v>71178</v>
       </c>
       <c r="E25" s="5">
-        <v>3268</v>
+        <v>8868</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
-        <v>44322</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>44325</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="5">
-        <v>32025</v>
+        <f t="shared" si="0"/>
+        <v>66341</v>
       </c>
       <c r="D26" s="5">
-        <v>28333</v>
+        <v>60705</v>
       </c>
       <c r="E26" s="5">
-        <v>3692</v>
+        <v>5636</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
-        <v>44321</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
+        <v>44324</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="5">
-        <v>8152</v>
+        <f t="shared" si="0"/>
+        <v>47858</v>
       </c>
       <c r="D27" s="5">
-        <v>7544</v>
+        <v>44506</v>
       </c>
       <c r="E27" s="5">
-        <v>608</v>
+        <v>3352</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
-        <v>44320</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>44323</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="5">
-        <v>6718</v>
+        <f t="shared" si="0"/>
+        <v>30391</v>
       </c>
       <c r="D28" s="5">
-        <v>6212</v>
+        <v>26962</v>
       </c>
       <c r="E28" s="5">
-        <v>506</v>
+        <v>3429</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
-        <v>44319</v>
+        <v>44322</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="5">
-        <v>5955</v>
+        <f t="shared" si="0"/>
+        <v>32880</v>
       </c>
       <c r="D29" s="5">
-        <v>5238</v>
+        <v>29097</v>
       </c>
       <c r="E29" s="5">
-        <v>717</v>
+        <v>3783</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
+        <v>44321</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>8201</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7583</v>
+      </c>
+      <c r="E30" s="5">
+        <v>618</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
+        <v>44320</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>6801</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6285</v>
+      </c>
+      <c r="E31" s="5">
+        <v>516</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="11">
+        <v>44319</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>6016</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5290</v>
+      </c>
+      <c r="E32" s="5">
+        <v>726</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="11">
         <v>44318</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="5">
-        <v>19211</v>
-      </c>
-      <c r="D30" s="5">
-        <v>19211</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="11">
-        <v>44317</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5">
-        <v>18161</v>
-      </c>
-      <c r="D31" s="5">
-        <v>18161</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="11">
-        <v>44316</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5">
-        <v>21444</v>
-      </c>
-      <c r="D32" s="5">
-        <v>21444</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
-        <v>44315</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="C33" s="5">
-        <v>11257</v>
+        <f t="shared" si="0"/>
+        <v>19446</v>
       </c>
       <c r="D33" s="5">
-        <v>11257</v>
+        <v>19446</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1200,18 +1240,19 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
-        <v>44314</v>
+        <v>44317</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5">
-        <v>29576</v>
+        <f t="shared" si="0"/>
+        <v>19201</v>
       </c>
       <c r="D34" s="5">
-        <v>29576</v>
+        <v>19201</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1219,18 +1260,19 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="5">
-        <v>30244</v>
+        <f t="shared" si="0"/>
+        <v>23330</v>
       </c>
       <c r="D35" s="5">
-        <v>30244</v>
+        <v>23330</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1238,18 +1280,19 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="5">
-        <v>22274</v>
+        <f t="shared" si="0"/>
+        <v>11368</v>
       </c>
       <c r="D36" s="5">
-        <v>22274</v>
+        <v>11368</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -1257,18 +1300,19 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
-        <v>44311</v>
+        <v>44314</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5">
-        <v>13682</v>
+        <f t="shared" si="0"/>
+        <v>31793</v>
       </c>
       <c r="D37" s="5">
-        <v>13682</v>
+        <v>31793</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -1276,18 +1320,19 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
-        <v>44310</v>
+        <v>44313</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="5">
-        <v>13501</v>
+        <f t="shared" si="0"/>
+        <v>32782</v>
       </c>
       <c r="D38" s="5">
-        <v>13501</v>
+        <v>32782</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -1295,18 +1340,19 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
-        <v>44309</v>
+        <v>44312</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5">
-        <v>14331</v>
+        <f t="shared" si="0"/>
+        <v>23840</v>
       </c>
       <c r="D39" s="5">
-        <v>14331</v>
+        <v>23840</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -1314,18 +1360,19 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
-        <v>44308</v>
+        <v>44311</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" s="5">
-        <v>19098</v>
+        <f t="shared" si="0"/>
+        <v>13779</v>
       </c>
       <c r="D40" s="5">
-        <v>19098</v>
+        <v>13779</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -1333,18 +1380,19 @@
       <c r="F40" s="1"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
-        <v>44307</v>
+        <v>44310</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5">
-        <v>20685</v>
+        <f t="shared" si="0"/>
+        <v>14721</v>
       </c>
       <c r="D41" s="5">
-        <v>20685</v>
+        <v>14721</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -1352,18 +1400,19 @@
       <c r="F41" s="1"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" s="5">
-        <v>17773</v>
+        <f t="shared" si="0"/>
+        <v>16833</v>
       </c>
       <c r="D42" s="5">
-        <v>17773</v>
+        <v>16833</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -1371,18 +1420,19 @@
       <c r="F42" s="1"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5">
-        <v>11059</v>
+        <f t="shared" si="0"/>
+        <v>21601</v>
       </c>
       <c r="D43" s="5">
-        <v>11059</v>
+        <v>21601</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -1390,136 +1440,203 @@
       <c r="F43" s="1"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
+        <v>44307</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>23264</v>
+      </c>
+      <c r="D44" s="5">
+        <v>23264</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="11">
+        <v>44306</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>19391</v>
+      </c>
+      <c r="D45" s="5">
+        <v>19391</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="11">
+        <v>44305</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>11254</v>
+      </c>
+      <c r="D46" s="5">
+        <v>11254</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="11">
         <v>44304</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="5">
-        <v>5638</v>
-      </c>
-      <c r="D44" s="5">
-        <v>5638</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>5656</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5656</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="11">
         <v>44303</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="5">
-        <v>3564</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3564</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="11">
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>3626</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3626</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="11">
         <v>44302</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="5">
-        <v>2962</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2962</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>3262</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3262</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="11">
         <v>44301</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="5">
-        <v>3570</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3570</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="11">
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>3905</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3905</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="11">
         <v>44300</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="5">
-        <v>2793</v>
-      </c>
-      <c r="D48" s="5">
-        <v>2793</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>3078</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3078</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="11">
         <v>44299</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="5">
-        <v>2670</v>
-      </c>
-      <c r="D49" s="5">
-        <v>2670</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="11">
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
+        <v>2758</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2758</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="11">
         <v>44298</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5">
-        <v>2967</v>
-      </c>
-      <c r="D50" s="5">
-        <v>2967</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
+        <v>3134</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3134</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
     </row>
